--- a/2.Inventario/Info.RegionalesIngresoInventario2018/Antioquia/formato informe dotacion 2016-2017.xlsx
+++ b/2.Inventario/Info.RegionalesIngresoInventario2018/Antioquia/formato informe dotacion 2016-2017.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VARIOS OFICINA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\Antioquia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3A5582-6447-4F39-87C1-DF2322E57380}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOTACIONES 2016-2017" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'DOTACIONES 2018'!$A$1:$J$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -323,9 +324,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -592,7 +593,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,7 +623,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -635,7 +636,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,7 +664,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,7 +712,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +818,7 @@
         <xdr:cNvPr id="3" name="Imagen 2" descr="LOGO-SOLIDO-NEGRO-ICBF-TRAN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -891,7 +892,7 @@
         <xdr:cNvPr id="4" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -970,7 +971,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E621EEFB-A286-47E8-9700-649F18B7BA7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E621EEFB-A286-47E8-9700-649F18B7BA7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1077,7 @@
         <xdr:cNvPr id="3" name="Imagen 2" descr="LOGO-SOLIDO-NEGRO-ICBF-TRAN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3A6CA54-985F-40FE-B2B9-325A5E4A69BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A6CA54-985F-40FE-B2B9-325A5E4A69BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1151,7 @@
         <xdr:cNvPr id="4" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65A0B7EC-919E-44EE-9FA9-DF9522EDBDEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A0B7EC-919E-44EE-9FA9-DF9522EDBDEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,11 +1472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1560,12 +1561,8 @@
         <f t="shared" ref="E9:E40" si="0">+C9-D9</f>
         <v>92</v>
       </c>
-      <c r="F9" s="5">
-        <v>18</v>
-      </c>
-      <c r="G9" s="5">
-        <v>15</v>
-      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -2206,11 +2203,11 @@
       </c>
       <c r="F41" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2225,11 +2222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:I18"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2719,7 +2716,7 @@
       <c r="E27" s="29"/>
     </row>
   </sheetData>
-  <sortState ref="B19:J22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:J22">
     <sortCondition ref="B14"/>
   </sortState>
   <mergeCells count="1">
